--- a/Test/MC_Ssf/T1/Sensors_data_1000007.xlsx
+++ b/Test/MC_Ssf/T1/Sensors_data_1000007.xlsx
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.243185485507366</v>
+        <v>0.9362954591829107</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05012535843142052</v>
+        <v>0.004219280789436739</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3261622903613552</v>
+        <v>0.1037975089831978</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.07407673474046783</v>
+        <v>-1.062614198876846</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03305569784990788</v>
+        <v>0.07363585547220475</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4150069915570376</v>
+        <v>0.3249130341682001</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.08972468361343022</v>
+        <v>0.3660181233148596</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03097048209229179</v>
+        <v>0.02157009423990174</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3979246623906576</v>
+        <v>0.1926062078351063</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.4019893399596902</v>
+        <v>0.5182699214238502</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02176215222962303</v>
+        <v>0.0175305960312744</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3576802598249532</v>
+        <v>0.2916469830440888</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -575,13 +575,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8420963228898887</v>
+        <v>0.9672980881349776</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002206380839732817</v>
+        <v>0.0004569423149740975</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2866430642638577</v>
+        <v>-0.1043119011588448</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
